--- a/TestData/performance_test/PerformanceTestResults.xlsx
+++ b/TestData/performance_test/PerformanceTestResults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JohnC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E32D0FD-899D-4C94-BD04-AAA85C5DECBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AB8B27-9AFB-420E-8921-C6DFC87B61D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9300" yWindow="2664" windowWidth="17280" windowHeight="8964" xr2:uid="{99E720EB-7192-4D28-9EF9-8A7A4AADADBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99E720EB-7192-4D28-9EF9-8A7A4AADADBC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>threads</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,15 +47,44 @@
     <t>min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Running Environment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Cores</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel® Xeon® CPU E5-2630 v4 @2.20GHz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per one SNP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +108,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -317,6 +355,56 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -328,26 +416,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -365,22 +444,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,6 +529,3228 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 studies, 1000 snps</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test1!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test1!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>29.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.783000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.867000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.233000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5E82-43EA-8DDC-D5158EE5436D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test1!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test1!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5E82-43EA-8DDC-D5158EE5436D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63004640"/>
+        <c:axId val="66288240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63004640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66288240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66288240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63004640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t>40 studies, 1000 snps</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test1!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test1!$C$14:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.132999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7FE4-4C0B-8C81-AA237ACD48F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63004640"/>
+        <c:axId val="66288240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63004640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> of Threads used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66288240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66288240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (min)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63004640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 studies, 1000 snps</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test1!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test1!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.783000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5E82-43EA-8DDC-D5158EE5436D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test1!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test1!$F$9:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5E82-43EA-8DDC-D5158EE5436D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63004640"/>
+        <c:axId val="66288240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63004640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66288240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66288240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63004640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2997C1-A557-467A-9A59-BF9CE565B3BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D56322-8102-44B8-99CB-84BA6BD6AD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACD8331-A0A4-4568-8312-B647B648AB53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3328D1E-1EA7-4B33-92EA-19C8BBAEA701}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -710,198 +4062,923 @@
     <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
         <v>1000</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="17">
         <v>10000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="18">
         <v>100000</v>
       </c>
+      <c r="F3" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="18">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="18">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
         <v>8</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="9">
         <v>14.067</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>163.28299999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>1660.7</v>
       </c>
+      <c r="F4" s="29">
+        <v>10.77</v>
+      </c>
+      <c r="G4" s="2">
+        <v>105.45</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1061.08</v>
+      </c>
+      <c r="J4" s="19">
+        <f>C4/($J$3/B4)*60</f>
+        <v>0.84401999999999999</v>
+      </c>
+      <c r="K4" s="19">
+        <f>D4/($K$3/B4)*60</f>
+        <v>0.97969799999999985</v>
+      </c>
+      <c r="L4" s="19">
+        <f>E4/($L$3/B4)*60</f>
+        <v>0.99641999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="15">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>14.917</v>
       </c>
       <c r="D5" s="1">
         <v>141.06700000000001</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>1587.8330000000001</v>
       </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="19">
+        <f t="shared" ref="J5:J16" si="0">C5/($J$3/B5)*60</f>
+        <v>4.4751000000000003</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:K16" si="1">D5/($K$3/B5)*60</f>
+        <v>4.2320099999999998</v>
+      </c>
+      <c r="L5" s="19">
+        <f t="shared" ref="L5:L16" si="2">E5/($L$3/B5)*60</f>
+        <v>4.7634990000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="15">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>13.067</v>
       </c>
+      <c r="D6" s="1">
+        <v>157.46700000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>491.86700000000002</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>7.8402000000000003</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="1"/>
+        <v>9.4480200000000014</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="2"/>
+        <v>2.9512019999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17.566700000000001</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>21.080040000000004</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6">
+        <v>17.882999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>165.96700000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1500.62</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>53.649000000000001</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="1"/>
+        <v>49.79010000000001</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="2"/>
+        <v>45.018599999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <v>20</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>29.417000000000002</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="30">
+        <v>21.72</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.76502</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>18.317</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="31">
+        <v>21.72</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>5.4950999999999999</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <v>20</v>
+      </c>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>16.783000000000001</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="31">
+        <v>21.72</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
+        <v>10.069800000000001</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20.867000000000001</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="31">
+        <v>21.72</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="19">
+        <f t="shared" si="0"/>
+        <v>62.600999999999999</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6">
+        <v>20.233000000000001</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="31">
+        <v>21.72</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>121.398</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14">
+        <v>40</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>51.466999999999999</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="30">
+        <v>39.29</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0880199999999998</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>30.132999999999999</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>9.0398999999999994</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="20">
+        <v>40</v>
+      </c>
+      <c r="B16" s="21">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="19">
+        <f t="shared" si="0"/>
+        <v>15.120000000000001</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F02A79C-67FC-49F0-9064-85735C2E187A}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="4" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="24">
+        <v>100000</v>
+      </c>
+      <c r="F3" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="18">
+        <v>100000</v>
+      </c>
+      <c r="J3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>14.032999999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>143.15</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1524.5830000000001</v>
+      </c>
+      <c r="F4" s="29">
+        <v>10.77</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="19">
+        <f>C4/($J$3/B4)*60</f>
+        <v>0.84198000000000006</v>
+      </c>
+      <c r="K4" s="19">
+        <f>D4/($K$3/B4)*60</f>
+        <v>0.85890000000000011</v>
+      </c>
+      <c r="L4" s="19">
+        <f>E4/($L$3/B4)*60</f>
+        <v>0.91474980000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="19">
+        <f t="shared" ref="J5:J16" si="0">C5/($J$3/B5)*60</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:K16" si="1">D5/($K$3/B5)*60</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <f t="shared" ref="L5:L16" si="2">E5/($L$3/B5)*60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="5">
-        <v>491.86700000000002</v>
+      <c r="E6" s="26"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="15">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>16.933</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
+        <v>20.319600000000001</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
         <v>50</v>
       </c>
-      <c r="C7" s="9">
-        <v>17.882999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>165.96700000000001</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1534.933</v>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>29.417000000000002</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5"/>
+      <c r="C9" s="6">
+        <v>31.832999999999998</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="30">
+        <v>21.72</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.90998</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+    <row r="10" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
-        <v>18.317</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
         <v>20</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="15">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
-        <v>16.783000000000001</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+    <row r="12" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="15">
         <v>50</v>
       </c>
-      <c r="C11" s="9">
-        <v>20.867000000000001</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="15">
         <v>100</v>
       </c>
-      <c r="C12" s="9">
-        <v>20.233000000000001</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
+      <c r="C13" s="6">
+        <v>20.667000000000002</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="19">
+        <f t="shared" si="0"/>
+        <v>124.002</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="14">
         <v>40</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="15">
         <v>1</v>
       </c>
-      <c r="C13" s="9">
-        <v>51.466999999999999</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="C14" s="6">
+        <v>50.417000000000002</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="30">
+        <v>39.29</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="19">
+        <f t="shared" si="0"/>
+        <v>3.02502</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
         <v>40</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
-        <v>30.132999999999999</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+    <row r="16" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="20">
         <v>40</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="21">
         <v>10</v>
       </c>
-      <c r="C15" s="10">
-        <v>25.2</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="C16" s="22">
+        <v>26.067</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="19">
+        <f t="shared" si="0"/>
+        <v>15.6402</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
